--- a/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
+++ b/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>84.96</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>8.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>89.02</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.37</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.02</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.37</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005290</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合A</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6469</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +710,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009710</t>
+          <t>005290</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺德新盛灵活配置混合C</t>
+          <t>诺德新盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.36</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.37</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>009710</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>诺德新盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.24</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
+++ b/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8951</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4851</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001536</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方君选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
+++ b/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
+++ b/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1391,4 +1392,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
+++ b/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1400,7 +1401,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,17 +1412,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1431,14 +1452,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.24</v>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0046</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1447,14 +1490,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.32</v>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5104</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1463,14 +1528,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.65</v>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1479,13 +1566,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
+++ b/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>73.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.8</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1827,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="4">
@@ -1748,14 +1843,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="5">
@@ -1764,14 +1859,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.65</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="6">
@@ -1780,13 +1875,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.43</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
+++ b/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,167 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银趋势优先混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.96</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3932</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -626,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -677,112 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>009527</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>浙商汇金新兴消费灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.44</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.24</t>
+          <t>73.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.19</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6469</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005290</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009710</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺德新盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -796,7 +682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +703,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -847,36 +733,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>100056</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>富国低碳环保混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>38.75</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.83</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.8951</t>
+          <t>1.0046</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -885,36 +771,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>011212</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>富国稳健策略6个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.66</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.79</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6487</t>
+          <t>0.5104</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -923,36 +809,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005739</t>
+          <t>006527</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国转型机遇混合</t>
+          <t>富国优质发展混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>5.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.75</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4851</t>
+          <t>0.1396</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -961,36 +847,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006527</t>
+          <t>006528</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国优质发展混合A</t>
+          <t>富国优质发展混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.42</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1208</t>
+          <t>0.0764</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -999,36 +885,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>519756</t>
+          <t>011213</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
+          <t>富国稳健策略6个月持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.09</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1149</t>
+          <t>0.0470</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1037,74 +923,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001536</t>
+          <t>009527</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方君选灵活配置混合</t>
+          <t>浙商汇金新兴消费灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>48.65</t>
+          <t>78.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0377</t>
+          <t>0.0232</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006528</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国优质发展混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>81.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1250,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1423,7 +1271,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1453,36 +1301,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>38.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>81.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0046</t>
+          <t>0.8951</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1491,36 +1339,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011212</t>
+          <t>100056</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国稳健策略6个月持有期混合A</t>
+          <t>富国低碳环保混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>20.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.34</t>
+          <t>80.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5104</t>
+          <t>0.6487</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1529,36 +1377,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006527</t>
+          <t>005739</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国优质发展混合A</t>
+          <t>富国转型机遇混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>13.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>86.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1396</t>
+          <t>0.4851</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1567,36 +1415,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006528</t>
+          <t>006527</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国优质发展混合C</t>
+          <t>富国优质发展混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>79.25</t>
+          <t>81.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0764</t>
+          <t>0.1208</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1605,36 +1453,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011213</t>
+          <t>519756</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国稳健策略6个月持有期混合C</t>
+          <t>交银施罗德国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.34</t>
+          <t>88.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0470</t>
+          <t>0.1149</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1643,36 +1491,74 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009527</t>
+          <t>001536</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>浙商汇金新兴消费灵活配置混合</t>
+          <t>南方君选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>78.00</t>
+          <t>48.65</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0232</t>
+          <t>0.0377</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1707,7 +1593,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1737,36 +1623,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009527</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商汇金新兴消费灵活配置混合</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>15.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.34</t>
+          <t>82.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0157</t>
+          <t>0.6469</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1780,128 +1742,166 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3932</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.8</v>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.43</v>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
+++ b/数据整理/stocks/A股/上证主板/601968-宝钢包装.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.8</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>2.32</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.65</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.43</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009527</t>
+          <t>100056</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>浙商汇金新兴消费灵活配置混合</t>
+          <t>富国低碳环保混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>21.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>73.34</t>
+          <t>83.39</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0157</t>
+          <t>0.6387</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,226 +750,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100056</t>
+          <t>009527</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国低碳环保混合</t>
+          <t>浙商汇金新兴消费灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>32.83</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>73.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0046</t>
+          <t>0.0157</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011212</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国稳健策略6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5104</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006527</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国优质发展混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1396</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006528</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国优质发展混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.25</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0764</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011213</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国稳健策略6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0470</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009527</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商汇金新兴消费灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>78.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -987,7 +814,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1017,36 +844,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011212</t>
+          <t>100056</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国稳健策略6个月持有期混合A</t>
+          <t>富国低碳环保混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.38</t>
+          <t>32.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.40</t>
+          <t>86.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5238</t>
+          <t>1.0046</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1055,36 +882,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005739</t>
+          <t>011212</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国转型机遇混合</t>
+          <t>富国稳健策略6个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.16</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4442</t>
+          <t>0.5104</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1108,17 +935,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>81.86</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1547</t>
+          <t>0.1396</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1131,36 +958,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011213</t>
+          <t>006528</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国稳健策略6个月持有期混合C</t>
+          <t>富国优质发展混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>82.40</t>
+          <t>79.25</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0499</t>
+          <t>0.0764</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1169,36 +996,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006528</t>
+          <t>011213</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富国优质发展混合C</t>
+          <t>富国稳健策略6个月持有期混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>81.86</t>
+          <t>87.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0470</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1044,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.10</t>
+          <t>78.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0195</t>
+          <t>0.0232</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1245,6 +1072,290 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4442</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1547</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1566,7 +1677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1736,7 +1847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
